--- a/Code/Results/Cases/Case_6_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_29/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.208920558018178</v>
+        <v>2.241538109082569</v>
       </c>
       <c r="C2">
-        <v>0.556867063509884</v>
+        <v>0.3705299260880111</v>
       </c>
       <c r="D2">
-        <v>0.03239737032850787</v>
+        <v>0.04136138901505149</v>
       </c>
       <c r="E2">
-        <v>0.03219907927192178</v>
+        <v>0.04305121891282804</v>
       </c>
       <c r="F2">
-        <v>1.600796740726693</v>
+        <v>0.640893036099861</v>
       </c>
       <c r="G2">
-        <v>0.0008005433670968206</v>
+        <v>0.0007939354993953067</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1493307346704853</v>
+        <v>0.149724477587398</v>
       </c>
       <c r="M2">
-        <v>0.5129958701682966</v>
+        <v>0.3831198556364157</v>
       </c>
       <c r="N2">
-        <v>0.9556061289080162</v>
+        <v>0.7559952736035669</v>
       </c>
       <c r="O2">
-        <v>1.258807491222981</v>
+        <v>1.905278023551006</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.788423491821277</v>
+        <v>1.948233053961729</v>
       </c>
       <c r="C3">
-        <v>0.4860857226893813</v>
+        <v>0.3400032778276341</v>
       </c>
       <c r="D3">
-        <v>0.03447837134072129</v>
+        <v>0.03804336871064606</v>
       </c>
       <c r="E3">
-        <v>0.03221764219210188</v>
+        <v>0.04450840040304671</v>
       </c>
       <c r="F3">
-        <v>1.460642021509585</v>
+        <v>0.5925340499650673</v>
       </c>
       <c r="G3">
-        <v>0.0008080147327834686</v>
+        <v>0.0007982227751401914</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1352271406294534</v>
+        <v>0.1356773183440865</v>
       </c>
       <c r="M3">
-        <v>0.4482293052878603</v>
+        <v>0.3342705269886608</v>
       </c>
       <c r="N3">
-        <v>1.009373369237032</v>
+        <v>0.7895138218733031</v>
       </c>
       <c r="O3">
-        <v>1.158975442582317</v>
+        <v>1.794060361114333</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.533802088461982</v>
+        <v>1.76877022580814</v>
       </c>
       <c r="C4">
-        <v>0.442961190283313</v>
+        <v>0.3212198971152418</v>
       </c>
       <c r="D4">
-        <v>0.03580049143686992</v>
+        <v>0.03599869173702785</v>
       </c>
       <c r="E4">
-        <v>0.03223866369245521</v>
+        <v>0.04545756774106513</v>
       </c>
       <c r="F4">
-        <v>1.378013922907243</v>
+        <v>0.5640842488895998</v>
       </c>
       <c r="G4">
-        <v>0.0008127340582449194</v>
+        <v>0.000800944668476442</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1267860737301447</v>
+        <v>0.1272156045912567</v>
       </c>
       <c r="M4">
-        <v>0.4090797851169086</v>
+        <v>0.304451030607467</v>
       </c>
       <c r="N4">
-        <v>1.044018772300159</v>
+        <v>0.8112044476573246</v>
       </c>
       <c r="O4">
-        <v>1.100472386105736</v>
+        <v>1.729858304142596</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.430824388212955</v>
+        <v>1.695765839333973</v>
       </c>
       <c r="C5">
-        <v>0.4254537651662531</v>
+        <v>0.313553655951992</v>
       </c>
       <c r="D5">
-        <v>0.03635001899846024</v>
+        <v>0.03516348863055541</v>
       </c>
       <c r="E5">
-        <v>0.03224953565266953</v>
+        <v>0.04585783294851842</v>
       </c>
       <c r="F5">
-        <v>1.345128518525314</v>
+        <v>0.5527835443020379</v>
       </c>
       <c r="G5">
-        <v>0.0008146916010626605</v>
+        <v>0.0008020767692250778</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1233965258536287</v>
+        <v>0.1238056944725727</v>
       </c>
       <c r="M5">
-        <v>0.3932631262973416</v>
+        <v>0.2923374435212267</v>
       </c>
       <c r="N5">
-        <v>1.058531349580811</v>
+        <v>0.820315071959822</v>
       </c>
       <c r="O5">
-        <v>1.077274835953418</v>
+        <v>1.704662460739343</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.413769116511162</v>
+        <v>1.6836504238332</v>
       </c>
       <c r="C6">
-        <v>0.4225501625179788</v>
+        <v>0.3122799151197881</v>
       </c>
       <c r="D6">
-        <v>0.03644190603288422</v>
+        <v>0.03502468083032539</v>
       </c>
       <c r="E6">
-        <v>0.03225147707053511</v>
+        <v>0.04592510405707229</v>
       </c>
       <c r="F6">
-        <v>1.33971330255703</v>
+        <v>0.5509241995040952</v>
       </c>
       <c r="G6">
-        <v>0.0008150187600398993</v>
+        <v>0.0008022661486893674</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1228365980311423</v>
+        <v>0.1232417172704316</v>
       </c>
       <c r="M6">
-        <v>0.3906445566572145</v>
+        <v>0.290328132183177</v>
       </c>
       <c r="N6">
-        <v>1.060964518692526</v>
+        <v>0.8218440677669712</v>
       </c>
       <c r="O6">
-        <v>1.073460070062609</v>
+        <v>1.70053540627157</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.532410270917808</v>
+        <v>1.767785182106422</v>
       </c>
       <c r="C7">
-        <v>0.4427248341013978</v>
+        <v>0.3211165578537845</v>
       </c>
       <c r="D7">
-        <v>0.0358078595242608</v>
+        <v>0.03598743606780275</v>
       </c>
       <c r="E7">
-        <v>0.03223880112266908</v>
+        <v>0.04546291159568661</v>
       </c>
       <c r="F7">
-        <v>1.377567331366777</v>
+        <v>0.5639306833240312</v>
       </c>
       <c r="G7">
-        <v>0.0008127603175624998</v>
+        <v>0.00080095984305997</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1267401635989245</v>
+        <v>0.1271694657865723</v>
       </c>
       <c r="M7">
-        <v>0.4088659440791176</v>
+        <v>0.3042875155746856</v>
       </c>
       <c r="N7">
-        <v>1.044212917893727</v>
+        <v>0.8113262271379682</v>
       </c>
       <c r="O7">
-        <v>1.100157008335415</v>
+        <v>1.729514666428372</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.063121673349883</v>
+        <v>2.140257781587536</v>
       </c>
       <c r="C8">
-        <v>0.5323805960125867</v>
+        <v>0.3600114673910753</v>
       </c>
       <c r="D8">
-        <v>0.03310543082532247</v>
+        <v>0.04021879526975169</v>
       </c>
       <c r="E8">
-        <v>0.03220340937491128</v>
+        <v>0.04354221837629613</v>
       </c>
       <c r="F8">
-        <v>1.551712645381443</v>
+        <v>0.6239487327723268</v>
       </c>
       <c r="G8">
-        <v>0.0008030928836757737</v>
+        <v>0.0007953954282476032</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.144419495446833</v>
+        <v>0.1448454170574678</v>
       </c>
       <c r="M8">
-        <v>0.4905248276977332</v>
+        <v>0.3662369083595252</v>
       </c>
       <c r="N8">
-        <v>0.9737962486356366</v>
+        <v>0.7673173599292262</v>
       </c>
       <c r="O8">
-        <v>1.223768056761173</v>
+        <v>1.866044733126586</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.137805486667673</v>
+        <v>2.877116257588852</v>
       </c>
       <c r="C9">
-        <v>0.7117663713876254</v>
+        <v>0.4360606415790187</v>
       </c>
       <c r="D9">
-        <v>0.02817880516919669</v>
+        <v>0.04846403706008573</v>
       </c>
       <c r="E9">
-        <v>0.03221628491403372</v>
+        <v>0.04021807823485801</v>
       </c>
       <c r="F9">
-        <v>1.924150864991049</v>
+        <v>0.7524501772938379</v>
       </c>
       <c r="G9">
-        <v>0.0007851214946795785</v>
+        <v>0.0007851743280952078</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1810563937878058</v>
+        <v>0.1809368828950113</v>
       </c>
       <c r="M9">
-        <v>0.6564592196794692</v>
+        <v>0.4893809371303703</v>
       </c>
       <c r="N9">
-        <v>0.8494510147519279</v>
+        <v>0.6901857581811086</v>
       </c>
       <c r="O9">
-        <v>1.491296136128383</v>
+        <v>2.169099476770839</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.956864394316199</v>
+        <v>3.424633278248677</v>
       </c>
       <c r="C10">
-        <v>0.8471547659263763</v>
+        <v>0.4919429795386634</v>
       </c>
       <c r="D10">
-        <v>0.0248197226733442</v>
+        <v>0.05449983956891913</v>
       </c>
       <c r="E10">
-        <v>0.03228552299226051</v>
+        <v>0.03806031048602687</v>
       </c>
       <c r="F10">
-        <v>2.222423156366062</v>
+        <v>0.8548516958145171</v>
       </c>
       <c r="G10">
-        <v>0.0007724272718370063</v>
+        <v>0.0007780573333005409</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.209532817093077</v>
+        <v>0.2085236763685714</v>
       </c>
       <c r="M10">
-        <v>0.783305252155138</v>
+        <v>0.581290426272254</v>
       </c>
       <c r="N10">
-        <v>0.7676873603722356</v>
+        <v>0.639637505283531</v>
       </c>
       <c r="O10">
-        <v>1.707732861499665</v>
+        <v>2.4175895744103</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.338103438084715</v>
+        <v>3.675583821201144</v>
       </c>
       <c r="C11">
-        <v>0.9098883968133578</v>
+        <v>0.5174030605535904</v>
       </c>
       <c r="D11">
-        <v>0.02335712619226005</v>
+        <v>0.05724336369318905</v>
       </c>
       <c r="E11">
-        <v>0.03233261713939095</v>
+        <v>0.03714392014182177</v>
       </c>
       <c r="F11">
-        <v>2.364929669778448</v>
+        <v>0.9035076064882617</v>
       </c>
       <c r="G11">
-        <v>0.0007667399004662659</v>
+        <v>0.0007748980920389306</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2229166176875026</v>
+        <v>0.2213536838070382</v>
       </c>
       <c r="M11">
-        <v>0.8424355508197294</v>
+        <v>0.623515921825792</v>
       </c>
       <c r="N11">
-        <v>0.7328832632192217</v>
+        <v>0.6180972331178083</v>
       </c>
       <c r="O11">
-        <v>1.811670728412494</v>
+        <v>2.537274082178271</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.48392161294106</v>
+        <v>3.770930304287049</v>
       </c>
       <c r="C12">
-        <v>0.9338429449381351</v>
+        <v>0.5270528928178067</v>
       </c>
       <c r="D12">
-        <v>0.02281360012801681</v>
+        <v>0.05828215940687187</v>
       </c>
       <c r="E12">
-        <v>0.03235295712660635</v>
+        <v>0.03680659195070746</v>
       </c>
       <c r="F12">
-        <v>2.420012731167304</v>
+        <v>0.9222604892000277</v>
       </c>
       <c r="G12">
-        <v>0.0007645966386666819</v>
+        <v>0.0007737124392277859</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2280550121666067</v>
+        <v>0.2262566594032336</v>
       </c>
       <c r="M12">
-        <v>0.8650651968432541</v>
+        <v>0.6395743576280708</v>
       </c>
       <c r="N12">
-        <v>0.7200773880250466</v>
+        <v>0.6101611355474645</v>
       </c>
       <c r="O12">
-        <v>1.851927104865609</v>
+        <v>2.583643610588638</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.452448936483563</v>
+        <v>3.750380859822883</v>
       </c>
       <c r="C13">
-        <v>0.928674479508544</v>
+        <v>0.5249741923028068</v>
       </c>
       <c r="D13">
-        <v>0.02293018276675518</v>
+        <v>0.05805843804392907</v>
       </c>
       <c r="E13">
-        <v>0.0323484603975368</v>
+        <v>0.03687880548006639</v>
       </c>
       <c r="F13">
-        <v>2.408097466678285</v>
+        <v>0.9182066354926661</v>
       </c>
       <c r="G13">
-        <v>0.0007650578014408346</v>
+        <v>0.0007739673253052812</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2269450981702903</v>
+        <v>0.2251986656005016</v>
       </c>
       <c r="M13">
-        <v>0.8601803320020238</v>
+        <v>0.6361126892080122</v>
       </c>
       <c r="N13">
-        <v>0.7228182273866963</v>
+        <v>0.6118603053338916</v>
       </c>
       <c r="O13">
-        <v>1.84321538003995</v>
+        <v>2.573608970141606</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.350069622166473</v>
+        <v>3.683421403170314</v>
       </c>
       <c r="C14">
-        <v>0.9118549596371963</v>
+        <v>0.5181967661553983</v>
       </c>
       <c r="D14">
-        <v>0.02331219724815359</v>
+        <v>0.05732882719764376</v>
       </c>
       <c r="E14">
-        <v>0.0323342386218104</v>
+        <v>0.03711597189752336</v>
       </c>
       <c r="F14">
-        <v>2.369438111317564</v>
+        <v>0.9050436659259873</v>
       </c>
       <c r="G14">
-        <v>0.0007665633771209694</v>
+        <v>0.0007748003370214248</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2233378969633577</v>
+        <v>0.2217561370941894</v>
       </c>
       <c r="M14">
-        <v>0.8442923267351858</v>
+        <v>0.6248356320346602</v>
       </c>
       <c r="N14">
-        <v>0.7318220427260655</v>
+        <v>0.617439832339862</v>
       </c>
       <c r="O14">
-        <v>1.81496398674156</v>
+        <v>2.541067383593258</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.287554924633923</v>
+        <v>3.64244951633583</v>
       </c>
       <c r="C15">
-        <v>0.9015794760707365</v>
+        <v>0.5140466191735982</v>
       </c>
       <c r="D15">
-        <v>0.02354756666265434</v>
+        <v>0.05688191037779688</v>
       </c>
       <c r="E15">
-        <v>0.03232586236065726</v>
+        <v>0.0372625146257084</v>
       </c>
       <c r="F15">
-        <v>2.345908237605073</v>
+        <v>0.8970245993667021</v>
       </c>
       <c r="G15">
-        <v>0.0007674868755899178</v>
+        <v>0.0007753119542516075</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2211377964212602</v>
+        <v>0.2196534172923066</v>
       </c>
       <c r="M15">
-        <v>0.8345925430070267</v>
+        <v>0.617937310581091</v>
       </c>
       <c r="N15">
-        <v>0.7373867534651453</v>
+        <v>0.6208865583690937</v>
       </c>
       <c r="O15">
-        <v>1.7977795257395</v>
+        <v>2.521274001435756</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.932140723554994</v>
+        <v>3.408274820941926</v>
       </c>
       <c r="C16">
-        <v>0.8430808288953813</v>
+        <v>0.4902801414454814</v>
       </c>
       <c r="D16">
-        <v>0.02491669903275362</v>
+        <v>0.05432051622765499</v>
       </c>
       <c r="E16">
-        <v>0.03228278069436818</v>
+        <v>0.03812153701382037</v>
       </c>
       <c r="F16">
-        <v>2.213258713820991</v>
+        <v>0.8517161329009753</v>
       </c>
       <c r="G16">
-        <v>0.0007728005347925615</v>
+        <v>0.000778265324537714</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2086675019437649</v>
+        <v>0.2076912023149191</v>
       </c>
       <c r="M16">
-        <v>0.7794724076611672</v>
+        <v>0.5785399886022304</v>
       </c>
       <c r="N16">
-        <v>0.770012471685483</v>
+        <v>0.6410754514767874</v>
       </c>
       <c r="O16">
-        <v>1.701059601925067</v>
+        <v>2.409909339119622</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.716460383137871</v>
+        <v>3.265130134382503</v>
       </c>
       <c r="C17">
-        <v>0.8075099586245642</v>
+        <v>0.4757122336340558</v>
       </c>
       <c r="D17">
-        <v>0.02577399144264536</v>
+        <v>0.05274875780423827</v>
       </c>
       <c r="E17">
-        <v>0.03226052066524643</v>
+        <v>0.03866543415191082</v>
       </c>
       <c r="F17">
-        <v>2.133722803276584</v>
+        <v>0.8244723459806096</v>
       </c>
       <c r="G17">
-        <v>0.0007760812087964048</v>
+        <v>0.0007800967806231165</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2011331605635718</v>
+        <v>0.2004275244419489</v>
       </c>
       <c r="M17">
-        <v>0.7460459010035621</v>
+        <v>0.5544834690251577</v>
       </c>
       <c r="N17">
-        <v>0.7906597715269754</v>
+        <v>0.6538411831118296</v>
       </c>
       <c r="O17">
-        <v>1.643202400972626</v>
+        <v>2.343356050944436</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.593206660113481</v>
+        <v>3.182971287650901</v>
       </c>
       <c r="C18">
-        <v>0.7871560151191375</v>
+        <v>0.4673366232720753</v>
       </c>
       <c r="D18">
-        <v>0.02627318298102654</v>
+        <v>0.05184450469394619</v>
       </c>
       <c r="E18">
-        <v>0.0322491672626164</v>
+        <v>0.03898438539080917</v>
       </c>
       <c r="F18">
-        <v>2.088608705878073</v>
+        <v>0.8089956419879769</v>
       </c>
       <c r="G18">
-        <v>0.0007779765228871744</v>
+        <v>0.0007811575939903352</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1968394966900462</v>
+        <v>0.1962757964478783</v>
       </c>
       <c r="M18">
-        <v>0.7269520223306998</v>
+        <v>0.5406853281562931</v>
       </c>
       <c r="N18">
-        <v>0.8027585783360607</v>
+        <v>0.6613198462022822</v>
       </c>
       <c r="O18">
-        <v>1.610432981527737</v>
+        <v>2.305695925641004</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.551606500721107</v>
+        <v>3.155182279672601</v>
       </c>
       <c r="C19">
-        <v>0.7802816647912607</v>
+        <v>0.4645012920353508</v>
       </c>
       <c r="D19">
-        <v>0.02644322270623212</v>
+        <v>0.0515382967180642</v>
       </c>
       <c r="E19">
-        <v>0.03224556488712516</v>
+        <v>0.03909341793241516</v>
       </c>
       <c r="F19">
-        <v>2.073438592596617</v>
+        <v>0.8037878043187874</v>
       </c>
       <c r="G19">
-        <v>0.0007786197401142897</v>
+        <v>0.0007815180565408228</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1953923449365078</v>
+        <v>0.1948744612304694</v>
       </c>
       <c r="M19">
-        <v>0.7205089173337242</v>
+        <v>0.5360198749717142</v>
       </c>
       <c r="N19">
-        <v>0.8068924768436716</v>
+        <v>0.6638750370416275</v>
       </c>
       <c r="O19">
-        <v>1.599422030271455</v>
+        <v>2.293048571686228</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.739335706218981</v>
+        <v>3.280349778788036</v>
       </c>
       <c r="C20">
-        <v>0.811285388146274</v>
+        <v>0.4772626324411249</v>
       </c>
       <c r="D20">
-        <v>0.02568209374685626</v>
+        <v>0.05291609548181953</v>
       </c>
       <c r="E20">
-        <v>0.03226273844349725</v>
+        <v>0.03860690016944535</v>
       </c>
       <c r="F20">
-        <v>2.142123089632904</v>
+        <v>0.8273522886849065</v>
       </c>
       <c r="G20">
-        <v>0.0007757311250318566</v>
+        <v>0.0007799010563188712</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2019310174383264</v>
+        <v>0.2011980199188201</v>
       </c>
       <c r="M20">
-        <v>0.7495903041258529</v>
+        <v>0.5570402768427982</v>
       </c>
       <c r="N20">
-        <v>0.7884385434361363</v>
+        <v>0.6524680765650004</v>
       </c>
       <c r="O20">
-        <v>1.649308018201054</v>
+        <v>2.350375994474035</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.380099741153572</v>
+        <v>3.703080029350133</v>
       </c>
       <c r="C21">
-        <v>0.9167895753968196</v>
+        <v>0.52018719993643</v>
       </c>
       <c r="D21">
-        <v>0.02319970204887944</v>
+        <v>0.05754313310962544</v>
       </c>
       <c r="E21">
-        <v>0.03233834555710224</v>
+        <v>0.03704604481441809</v>
       </c>
       <c r="F21">
-        <v>2.380761750766581</v>
+        <v>0.9089007997489063</v>
       </c>
       <c r="G21">
-        <v>0.0007661208884024277</v>
+        <v>0.0007745553761994318</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.224395440998677</v>
+        <v>0.2227660478204712</v>
       </c>
       <c r="M21">
-        <v>0.8489522694043998</v>
+        <v>0.6281460427405037</v>
       </c>
       <c r="N21">
-        <v>0.7291670058294386</v>
+        <v>0.6157949027616709</v>
       </c>
       <c r="O21">
-        <v>1.823236814379896</v>
+        <v>2.550596436536864</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.807450043266272</v>
+        <v>3.981230348766871</v>
       </c>
       <c r="C22">
-        <v>0.9869197522680508</v>
+        <v>0.5482929429037426</v>
       </c>
       <c r="D22">
-        <v>0.02163804547045167</v>
+        <v>0.0605665903243704</v>
       </c>
       <c r="E22">
-        <v>0.03240252455466397</v>
+        <v>0.03608257001171822</v>
       </c>
       <c r="F22">
-        <v>2.543324399180563</v>
+        <v>0.9641244834778462</v>
       </c>
       <c r="G22">
-        <v>0.0007598996211159477</v>
+        <v>0.0007711236378261019</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2394912938407998</v>
+        <v>0.237123721149743</v>
       </c>
       <c r="M22">
-        <v>0.9152982146208757</v>
+        <v>0.6750219734892653</v>
       </c>
       <c r="N22">
-        <v>0.692624333703705</v>
+        <v>0.5931194697398965</v>
       </c>
       <c r="O22">
-        <v>1.942200483326857</v>
+        <v>2.687606146650296</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.578505220238128</v>
+        <v>3.832588761500972</v>
       </c>
       <c r="C23">
-        <v>0.949369849887546</v>
+        <v>0.5332865314592823</v>
       </c>
       <c r="D23">
-        <v>0.02246563322561279</v>
+        <v>0.05895289732962539</v>
       </c>
       <c r="E23">
-        <v>0.03236682092906351</v>
+        <v>0.03659150361424857</v>
       </c>
       <c r="F23">
-        <v>2.455907828143722</v>
+        <v>0.9344637830935056</v>
       </c>
       <c r="G23">
-        <v>0.0007632153467777828</v>
+        <v>0.0007729497523355587</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2313934172815806</v>
+        <v>0.2294353520192232</v>
       </c>
       <c r="M23">
-        <v>0.8797474202141586</v>
+        <v>0.6499633252776391</v>
       </c>
       <c r="N23">
-        <v>0.7119161699416097</v>
+        <v>0.6050994508347856</v>
       </c>
       <c r="O23">
-        <v>1.878183514348237</v>
+        <v>2.613886124640487</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.728991471364566</v>
+        <v>3.273468554468366</v>
       </c>
       <c r="C24">
-        <v>0.8095782192638978</v>
+        <v>0.476561698383307</v>
       </c>
       <c r="D24">
-        <v>0.02572362106862958</v>
+        <v>0.0528404440896324</v>
       </c>
       <c r="E24">
-        <v>0.03226173130694665</v>
+        <v>0.03863334391568429</v>
       </c>
       <c r="F24">
-        <v>2.138323423668055</v>
+        <v>0.8260496891219162</v>
       </c>
       <c r="G24">
-        <v>0.0007758893689809427</v>
+        <v>0.0007799895187108509</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.201570188829777</v>
+        <v>0.2008496036700507</v>
       </c>
       <c r="M24">
-        <v>0.7479874973541953</v>
+        <v>0.5558842441649148</v>
       </c>
       <c r="N24">
-        <v>0.78944205146108</v>
+        <v>0.6530884244721378</v>
       </c>
       <c r="O24">
-        <v>1.646546139748381</v>
+        <v>2.347200409017262</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.842586450212139</v>
+        <v>2.676867236628368</v>
       </c>
       <c r="C25">
-        <v>0.6627183588489913</v>
+        <v>0.41549698317354</v>
       </c>
       <c r="D25">
-        <v>0.02946853789373272</v>
+        <v>0.04623811004780265</v>
       </c>
       <c r="E25">
-        <v>0.03220308646660586</v>
+        <v>0.04106850989804611</v>
       </c>
       <c r="F25">
-        <v>1.819523168057884</v>
+        <v>0.716390968828378</v>
       </c>
       <c r="G25">
-        <v>0.0007898865996629748</v>
+        <v>0.0007878683183089892</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1708994833415716</v>
+        <v>0.171000425448959</v>
       </c>
       <c r="M25">
-        <v>0.6108127637179805</v>
+        <v>0.4558474781839692</v>
       </c>
       <c r="N25">
-        <v>0.8815009366440663</v>
+        <v>0.710017654657868</v>
       </c>
       <c r="O25">
-        <v>1.415789768433896</v>
+        <v>2.082907116589126</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_29/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.241538109082569</v>
+        <v>1.893896560784469</v>
       </c>
       <c r="C2">
-        <v>0.3705299260880111</v>
+        <v>0.4376994499374973</v>
       </c>
       <c r="D2">
-        <v>0.04136138901505149</v>
+        <v>0.06191958699441358</v>
       </c>
       <c r="E2">
-        <v>0.04305121891282804</v>
+        <v>0.05247476193220502</v>
       </c>
       <c r="F2">
-        <v>0.640893036099861</v>
+        <v>0.4133122166338765</v>
       </c>
       <c r="G2">
-        <v>0.0007939354993953067</v>
+        <v>0.3063840834446907</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001173718633260545</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2549377063773974</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2516839543435552</v>
       </c>
       <c r="L2">
-        <v>0.149724477587398</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3831198556364157</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7559952736035669</v>
+        <v>0.154647135202552</v>
       </c>
       <c r="O2">
-        <v>1.905278023551006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.3405136577395211</v>
+      </c>
+      <c r="P2">
+        <v>0.8486562259489503</v>
+      </c>
+      <c r="Q2">
+        <v>1.1329157223458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.948233053961729</v>
+        <v>1.649394091707876</v>
       </c>
       <c r="C3">
-        <v>0.3400032778276341</v>
+        <v>0.4051801724889117</v>
       </c>
       <c r="D3">
-        <v>0.03804336871064606</v>
+        <v>0.05485362878064848</v>
       </c>
       <c r="E3">
-        <v>0.04450840040304671</v>
+        <v>0.05395004493869582</v>
       </c>
       <c r="F3">
-        <v>0.5925340499650673</v>
+        <v>0.3840372182371254</v>
       </c>
       <c r="G3">
-        <v>0.0007982227751401914</v>
+        <v>0.2859295020787656</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0006243384470279167</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2497674120671789</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2536466681868852</v>
       </c>
       <c r="L3">
-        <v>0.1356773183440865</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3342705269886608</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7895138218733031</v>
+        <v>0.1400220717161105</v>
       </c>
       <c r="O3">
-        <v>1.794060361114333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.2971802367256373</v>
+      </c>
+      <c r="P3">
+        <v>0.8538993098553291</v>
+      </c>
+      <c r="Q3">
+        <v>1.078430658810106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.76877022580814</v>
+        <v>1.498708710710702</v>
       </c>
       <c r="C4">
-        <v>0.3212198971152418</v>
+        <v>0.3852832255663685</v>
       </c>
       <c r="D4">
-        <v>0.03599869173702785</v>
+        <v>0.05051940331249227</v>
       </c>
       <c r="E4">
-        <v>0.04545756774106513</v>
+        <v>0.05490663152824471</v>
       </c>
       <c r="F4">
-        <v>0.5640842488895998</v>
+        <v>0.3665500862902107</v>
       </c>
       <c r="G4">
-        <v>0.000800944668476442</v>
+        <v>0.2737764915558216</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0004660006649870319</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2468831473543034</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2551752424184883</v>
       </c>
       <c r="L4">
-        <v>0.1272156045912567</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.304451030607467</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8112044476573246</v>
+        <v>0.131234643239921</v>
       </c>
       <c r="O4">
-        <v>1.729858304142596</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.2705645682231008</v>
+      </c>
+      <c r="P4">
+        <v>0.8579408132986401</v>
+      </c>
+      <c r="Q4">
+        <v>1.046436984890462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.695765839333973</v>
+        <v>1.436324634062089</v>
       </c>
       <c r="C5">
-        <v>0.313553655951992</v>
+        <v>0.3776146579176896</v>
       </c>
       <c r="D5">
-        <v>0.03516348863055541</v>
+        <v>0.04879673616595426</v>
       </c>
       <c r="E5">
-        <v>0.04585783294851842</v>
+        <v>0.05529418227088234</v>
       </c>
       <c r="F5">
-        <v>0.5527835443020379</v>
+        <v>0.3592394302092927</v>
       </c>
       <c r="G5">
-        <v>0.0008020767692250778</v>
+        <v>0.2686196902732689</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.000508208785381381</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.24562429979283</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2556393811128927</v>
       </c>
       <c r="L5">
-        <v>0.1238056944725727</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2923374435212267</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.820315071959822</v>
+        <v>0.1277653570772301</v>
       </c>
       <c r="O5">
-        <v>1.704662460739343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.2596392230856495</v>
+      </c>
+      <c r="P5">
+        <v>0.860104065584899</v>
+      </c>
+      <c r="Q5">
+        <v>1.032788862187715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.6836504238332</v>
+        <v>1.424936349877896</v>
       </c>
       <c r="C6">
-        <v>0.3122799151197881</v>
+        <v>0.3768635553454516</v>
       </c>
       <c r="D6">
-        <v>0.03502468083032539</v>
+        <v>0.04856334150736785</v>
       </c>
       <c r="E6">
-        <v>0.04592510405707229</v>
+        <v>0.05534116112465215</v>
       </c>
       <c r="F6">
-        <v>0.5509241995040952</v>
+        <v>0.3576648433380143</v>
       </c>
       <c r="G6">
-        <v>0.0008022661486893674</v>
+        <v>0.267401562944471</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0006034638336886999</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2452312501858174</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2554311652688384</v>
       </c>
       <c r="L6">
-        <v>0.1232417172704316</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.290328132183177</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8218440677669712</v>
+        <v>0.1272725403696668</v>
       </c>
       <c r="O6">
-        <v>1.70053540627157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.2577325463057818</v>
+      </c>
+      <c r="P6">
+        <v>0.8608627318158497</v>
+      </c>
+      <c r="Q6">
+        <v>1.029369772257851</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.767785182106422</v>
+        <v>1.495070523684802</v>
       </c>
       <c r="C7">
-        <v>0.3211165578537845</v>
+        <v>0.3866094838428751</v>
       </c>
       <c r="D7">
-        <v>0.03598743606780275</v>
+        <v>0.05064036709543274</v>
       </c>
       <c r="E7">
-        <v>0.04546291159568661</v>
+        <v>0.05486261707896789</v>
       </c>
       <c r="F7">
-        <v>0.5639306833240312</v>
+        <v>0.3654462544147989</v>
       </c>
       <c r="G7">
-        <v>0.00080095984305997</v>
+        <v>0.2727017174632991</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0006852325344954835</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2463519240848484</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2543897111074962</v>
       </c>
       <c r="L7">
-        <v>0.1271694657865723</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3042875155746856</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8113262271379682</v>
+        <v>0.1314078689829827</v>
       </c>
       <c r="O7">
-        <v>1.729514666428372</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.2701642910249475</v>
+      </c>
+      <c r="P7">
+        <v>0.8590406291369703</v>
+      </c>
+      <c r="Q7">
+        <v>1.043044380860195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.140257781587536</v>
+        <v>1.805963266301006</v>
       </c>
       <c r="C8">
-        <v>0.3600114673910753</v>
+        <v>0.4283898265991439</v>
       </c>
       <c r="D8">
-        <v>0.04021879526975169</v>
+        <v>0.0596749868454296</v>
       </c>
       <c r="E8">
-        <v>0.04354221837629613</v>
+        <v>0.05290919740454125</v>
       </c>
       <c r="F8">
-        <v>0.6239487327723268</v>
+        <v>0.4017789453106815</v>
       </c>
       <c r="G8">
-        <v>0.0007953954282476032</v>
+        <v>0.2979098251654975</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001205956367336114</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2524135705147188</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2512485196164711</v>
       </c>
       <c r="L8">
-        <v>0.1448454170574678</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3662369083595252</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7673173599292262</v>
+        <v>0.149855335700984</v>
       </c>
       <c r="O8">
-        <v>1.866044733126586</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.3252340522356008</v>
+      </c>
+      <c r="P8">
+        <v>0.8517661359365576</v>
+      </c>
+      <c r="Q8">
+        <v>1.109564282212418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.877116257588852</v>
+        <v>2.416486714603025</v>
       </c>
       <c r="C9">
-        <v>0.4360606415790187</v>
+        <v>0.5084156947851</v>
       </c>
       <c r="D9">
-        <v>0.04846403706008573</v>
+        <v>0.07718668600571732</v>
       </c>
       <c r="E9">
-        <v>0.04021807823485801</v>
+        <v>0.04957445130318572</v>
       </c>
       <c r="F9">
-        <v>0.7524501772938379</v>
+        <v>0.4790279031358367</v>
       </c>
       <c r="G9">
-        <v>0.0007851743280952078</v>
+        <v>0.3526572074692353</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.003433458470065709</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2676472325061638</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.249193914569851</v>
       </c>
       <c r="L9">
-        <v>0.1809368828950113</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4893809371303703</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6901857581811086</v>
+        <v>0.1872802502277082</v>
       </c>
       <c r="O9">
-        <v>2.169099476770839</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.4337028517544894</v>
+      </c>
+      <c r="P9">
+        <v>0.8422799493030766</v>
+      </c>
+      <c r="Q9">
+        <v>1.258216821697715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.424633278248677</v>
+        <v>2.861422966153498</v>
       </c>
       <c r="C10">
-        <v>0.4919429795386634</v>
+        <v>0.5686029238443098</v>
       </c>
       <c r="D10">
-        <v>0.05449983956891913</v>
+        <v>0.09019484908169062</v>
       </c>
       <c r="E10">
-        <v>0.03806031048602687</v>
+        <v>0.04736316721968592</v>
       </c>
       <c r="F10">
-        <v>0.8548516958145171</v>
+        <v>0.5383133434722041</v>
       </c>
       <c r="G10">
-        <v>0.0007780573333005409</v>
+        <v>0.3949371071345382</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.00627583957989053</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2802483142416179</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2491291555737369</v>
       </c>
       <c r="L10">
-        <v>0.2085236763685714</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.581290426272254</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.639637505283531</v>
+        <v>0.2160640030141252</v>
       </c>
       <c r="O10">
-        <v>2.4175895744103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.5134100046639674</v>
+      </c>
+      <c r="P10">
+        <v>0.8404645004523417</v>
+      </c>
+      <c r="Q10">
+        <v>1.374702117238144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.675583821201144</v>
+        <v>3.058691270582301</v>
       </c>
       <c r="C11">
-        <v>0.5174030605535904</v>
+        <v>0.5986544974040555</v>
       </c>
       <c r="D11">
-        <v>0.05724336369318905</v>
+        <v>0.09638134035115087</v>
       </c>
       <c r="E11">
-        <v>0.03714392014182177</v>
+        <v>0.04634302546537494</v>
       </c>
       <c r="F11">
-        <v>0.9035076064882617</v>
+        <v>0.5643913940889149</v>
       </c>
       <c r="G11">
-        <v>0.0007748980920389306</v>
+        <v>0.4131663915792672</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.008184621670516812</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.285547544103494</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2482709783096411</v>
       </c>
       <c r="L11">
-        <v>0.2213536838070382</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.623515921825792</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6180972331178083</v>
+        <v>0.2298198099003059</v>
       </c>
       <c r="O11">
-        <v>2.537274082178271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.5492997965303061</v>
+      </c>
+      <c r="P11">
+        <v>0.8427581146246439</v>
+      </c>
+      <c r="Q11">
+        <v>1.424647706193866</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.770930304287049</v>
+        <v>3.135868950181987</v>
       </c>
       <c r="C12">
-        <v>0.5270528928178067</v>
+        <v>0.6087583347683392</v>
       </c>
       <c r="D12">
-        <v>0.05828215940687187</v>
+        <v>0.098597776203313</v>
       </c>
       <c r="E12">
-        <v>0.03680659195070746</v>
+        <v>0.04600494510565856</v>
       </c>
       <c r="F12">
-        <v>0.9222604892000277</v>
+        <v>0.5752695373518151</v>
       </c>
       <c r="G12">
-        <v>0.0007737124392277859</v>
+        <v>0.4210529800211305</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.008772591396688512</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2880614457187534</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.248690289369911</v>
       </c>
       <c r="L12">
-        <v>0.2262566594032336</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6395743576280708</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6101611355474645</v>
+        <v>0.2348810351030295</v>
       </c>
       <c r="O12">
-        <v>2.583643610588638</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.5631323779961477</v>
+      </c>
+      <c r="P12">
+        <v>0.8427270451061872</v>
+      </c>
+      <c r="Q12">
+        <v>1.446707095063687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.750380859822883</v>
+        <v>3.119758455278884</v>
       </c>
       <c r="C13">
-        <v>0.5249741923028068</v>
+        <v>0.6063159759102916</v>
       </c>
       <c r="D13">
-        <v>0.05805843804392907</v>
+        <v>0.09809394546689276</v>
       </c>
       <c r="E13">
-        <v>0.03687880548006639</v>
+        <v>0.04608523825864896</v>
       </c>
       <c r="F13">
-        <v>0.9182066354926661</v>
+        <v>0.5730989032321361</v>
       </c>
       <c r="G13">
-        <v>0.0007739673253052812</v>
+        <v>0.4195270435118772</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.008605489245194775</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2876067602151409</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2487327411651563</v>
       </c>
       <c r="L13">
-        <v>0.2251986656005016</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6361126892080122</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6118603053338916</v>
+        <v>0.2337498334148904</v>
       </c>
       <c r="O13">
-        <v>2.573608970141606</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.560199166293792</v>
+      </c>
+      <c r="P13">
+        <v>0.8425094249408289</v>
+      </c>
+      <c r="Q13">
+        <v>1.44250375843194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.683421403170314</v>
+        <v>3.065257709298862</v>
       </c>
       <c r="C14">
-        <v>0.5181967661553983</v>
+        <v>0.599372653277328</v>
       </c>
       <c r="D14">
-        <v>0.05732882719764376</v>
+        <v>0.09655244090505022</v>
       </c>
       <c r="E14">
-        <v>0.03711597189752336</v>
+        <v>0.04631838389343379</v>
       </c>
       <c r="F14">
-        <v>0.9050436659259873</v>
+        <v>0.565359330812548</v>
       </c>
       <c r="G14">
-        <v>0.0007748003370214248</v>
+        <v>0.4138884055926297</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.008215437030613337</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2857911386463172</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2483618002574772</v>
       </c>
       <c r="L14">
-        <v>0.2217561370941894</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6248356320346602</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.617439832339862</v>
+        <v>0.2302186595321416</v>
       </c>
       <c r="O14">
-        <v>2.541067383593258</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.5504572692738137</v>
+      </c>
+      <c r="P14">
+        <v>0.8426603039376346</v>
+      </c>
+      <c r="Q14">
+        <v>1.426694722012002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.64244951633583</v>
+        <v>3.03086793303828</v>
       </c>
       <c r="C15">
-        <v>0.5140466191735982</v>
+        <v>0.5956449643527151</v>
       </c>
       <c r="D15">
-        <v>0.05688191037779688</v>
+        <v>0.09566048456640175</v>
       </c>
       <c r="E15">
-        <v>0.0372625146257084</v>
+        <v>0.04644680391698852</v>
       </c>
       <c r="F15">
-        <v>0.8970245993667021</v>
+        <v>0.5602850034537354</v>
       </c>
       <c r="G15">
-        <v>0.0007753119542516075</v>
+        <v>0.4100994143304462</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.008062412595806201</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2845109161048924</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2478761353906656</v>
       </c>
       <c r="L15">
-        <v>0.2196534172923066</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.617937310581091</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6208865583690937</v>
+        <v>0.2281387544741023</v>
       </c>
       <c r="O15">
-        <v>2.521274001435756</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.5444004455031859</v>
+      </c>
+      <c r="P15">
+        <v>0.8431996146338605</v>
+      </c>
+      <c r="Q15">
+        <v>1.415948490287889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.408274820941926</v>
+        <v>2.840109746508347</v>
       </c>
       <c r="C16">
-        <v>0.4902801414454814</v>
+        <v>0.5710117223887892</v>
       </c>
       <c r="D16">
-        <v>0.05432051622765499</v>
+        <v>0.09022562009538859</v>
       </c>
       <c r="E16">
-        <v>0.03812153701382037</v>
+        <v>0.04729914940839119</v>
       </c>
       <c r="F16">
-        <v>0.8517161329009753</v>
+        <v>0.5336799634002674</v>
       </c>
       <c r="G16">
-        <v>0.000778265324537714</v>
+        <v>0.3908198114705357</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.006780476572551208</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2784237231254139</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2469351632503525</v>
       </c>
       <c r="L16">
-        <v>0.2076912023149191</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5785399886022304</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6410754514767874</v>
+        <v>0.2158187949633685</v>
       </c>
       <c r="O16">
-        <v>2.409909339119622</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.5102992928617525</v>
+      </c>
+      <c r="P16">
+        <v>0.8438838768955605</v>
+      </c>
+      <c r="Q16">
+        <v>1.36213895960725</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.265130134382503</v>
+        <v>2.723038509967978</v>
       </c>
       <c r="C17">
-        <v>0.4757122336340558</v>
+        <v>0.5559317071399335</v>
       </c>
       <c r="D17">
-        <v>0.05274875780423827</v>
+        <v>0.08689573371237458</v>
       </c>
       <c r="E17">
-        <v>0.03866543415191082</v>
+        <v>0.04783782844969853</v>
       </c>
       <c r="F17">
-        <v>0.8244723459806096</v>
+        <v>0.5175763628497876</v>
       </c>
       <c r="G17">
-        <v>0.0007800967806231165</v>
+        <v>0.3791795802438713</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.00607442712209405</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2748021085890571</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2464835747478809</v>
       </c>
       <c r="L17">
-        <v>0.2004275244419489</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5544834690251577</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6538411831118296</v>
+        <v>0.2083363910693521</v>
       </c>
       <c r="O17">
-        <v>2.343356050944436</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4894018750928808</v>
+      </c>
+      <c r="P17">
+        <v>0.8445658618452825</v>
+      </c>
+      <c r="Q17">
+        <v>1.329759106250719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.182971287650901</v>
+        <v>2.658219531994177</v>
       </c>
       <c r="C18">
-        <v>0.4673366232720753</v>
+        <v>0.5459462281334311</v>
       </c>
       <c r="D18">
-        <v>0.05184450469394619</v>
+        <v>0.08485044844267264</v>
       </c>
       <c r="E18">
-        <v>0.03898438539080917</v>
+        <v>0.04819339715885818</v>
       </c>
       <c r="F18">
-        <v>0.8089956419879769</v>
+        <v>0.509280762946581</v>
       </c>
       <c r="G18">
-        <v>0.0007811575939903352</v>
+        <v>0.3734382627170731</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.005469043802731832</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.273208868954427</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2469511371388577</v>
       </c>
       <c r="L18">
-        <v>0.1962757964478783</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5406853281562931</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6613198462022822</v>
+        <v>0.2038632335631974</v>
       </c>
       <c r="O18">
-        <v>2.305695925641004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.4776207440537021</v>
+      </c>
+      <c r="P18">
+        <v>0.8439855333609216</v>
+      </c>
+      <c r="Q18">
+        <v>1.314182205763331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.155182279672601</v>
+        <v>2.634311503216566</v>
       </c>
       <c r="C19">
-        <v>0.4645012920353508</v>
+        <v>0.5435867743314589</v>
       </c>
       <c r="D19">
-        <v>0.0515382967180642</v>
+        <v>0.08425952000761328</v>
       </c>
       <c r="E19">
-        <v>0.03909341793241516</v>
+        <v>0.04828390051780662</v>
       </c>
       <c r="F19">
-        <v>0.8037878043187874</v>
+        <v>0.5057983472476195</v>
       </c>
       <c r="G19">
-        <v>0.0007815180565408228</v>
+        <v>0.3708203832219681</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.005441024831737806</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2723293219924443</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2465904570204032</v>
       </c>
       <c r="L19">
-        <v>0.1948744612304694</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5360198749717142</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6638750370416275</v>
+        <v>0.2025044661399562</v>
       </c>
       <c r="O19">
-        <v>2.293048571686228</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.4734547430169656</v>
+      </c>
+      <c r="P19">
+        <v>0.8446278259201492</v>
+      </c>
+      <c r="Q19">
+        <v>1.306766891937258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.280349778788036</v>
+        <v>2.735702360847881</v>
       </c>
       <c r="C20">
-        <v>0.4772626324411249</v>
+        <v>0.5574318916569609</v>
       </c>
       <c r="D20">
-        <v>0.05291609548181953</v>
+        <v>0.08723973209723113</v>
       </c>
       <c r="E20">
-        <v>0.03860690016944535</v>
+        <v>0.0477830201801499</v>
       </c>
       <c r="F20">
-        <v>0.8273522886849065</v>
+        <v>0.5193524614983147</v>
       </c>
       <c r="G20">
-        <v>0.0007799010563188712</v>
+        <v>0.3804815105326327</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.006128526029744563</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.275218734085712</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2465804850272058</v>
       </c>
       <c r="L20">
-        <v>0.2011980199188201</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5570402768427982</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6524680765650004</v>
+        <v>0.2091147182376147</v>
       </c>
       <c r="O20">
-        <v>2.350375994474035</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.4916438219840771</v>
+      </c>
+      <c r="P20">
+        <v>0.8443993631700266</v>
+      </c>
+      <c r="Q20">
+        <v>1.333404364959421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.703080029350133</v>
+        <v>3.078412843232286</v>
       </c>
       <c r="C21">
-        <v>0.52018719993643</v>
+        <v>0.602897479819319</v>
       </c>
       <c r="D21">
-        <v>0.05754313310962544</v>
+        <v>0.09715262887344522</v>
       </c>
       <c r="E21">
-        <v>0.03704604481441809</v>
+        <v>0.04620553396397309</v>
       </c>
       <c r="F21">
-        <v>0.9089007997489063</v>
+        <v>0.5666331229249053</v>
       </c>
       <c r="G21">
-        <v>0.0007745553761994318</v>
+        <v>0.4145479651161281</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.008557106838553707</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2858206812321669</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2477078462005053</v>
       </c>
       <c r="L21">
-        <v>0.2227660478204712</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6281460427405037</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6157949027616709</v>
+        <v>0.2314737850987996</v>
       </c>
       <c r="O21">
-        <v>2.550596436536864</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.5530579239677849</v>
+      </c>
+      <c r="P21">
+        <v>0.843827874251545</v>
+      </c>
+      <c r="Q21">
+        <v>1.428170444137635</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.981230348766871</v>
+        <v>3.305898586996079</v>
       </c>
       <c r="C22">
-        <v>0.5482929429037426</v>
+        <v>0.6308422293588194</v>
       </c>
       <c r="D22">
-        <v>0.0605665903243704</v>
+        <v>0.103460014602625</v>
       </c>
       <c r="E22">
-        <v>0.03608257001171822</v>
+        <v>0.0452832154111027</v>
       </c>
       <c r="F22">
-        <v>0.9641244834778462</v>
+        <v>0.5995518522319827</v>
       </c>
       <c r="G22">
-        <v>0.0007711236378261019</v>
+        <v>0.4387230420837369</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01012493993211461</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2937719000764929</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2498388078514537</v>
       </c>
       <c r="L22">
-        <v>0.237123721149743</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6750219734892653</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5931194697398965</v>
+        <v>0.2460689206811679</v>
       </c>
       <c r="O22">
-        <v>2.687606146650296</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.5936111658629386</v>
+      </c>
+      <c r="P22">
+        <v>0.842797735173562</v>
+      </c>
+      <c r="Q22">
+        <v>1.496289608210759</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.832588761500972</v>
+        <v>3.187937706305718</v>
       </c>
       <c r="C23">
-        <v>0.5332865314592823</v>
+        <v>0.6141242408378673</v>
       </c>
       <c r="D23">
-        <v>0.05895289732962539</v>
+        <v>0.09991411663133931</v>
       </c>
       <c r="E23">
-        <v>0.03659150361424857</v>
+        <v>0.04582375258929172</v>
       </c>
       <c r="F23">
-        <v>0.9344637830935056</v>
+        <v>0.5831116318815504</v>
       </c>
       <c r="G23">
-        <v>0.0007729497523355587</v>
+        <v>0.4269566963549352</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.009004412111449867</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2900969547289094</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.2495789671876523</v>
       </c>
       <c r="L23">
-        <v>0.2294353520192232</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6499633252776391</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6050994508347856</v>
+        <v>0.2379900782830902</v>
       </c>
       <c r="O23">
-        <v>2.613886124640487</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.5722727786708219</v>
+      </c>
+      <c r="P23">
+        <v>0.84179478973887</v>
+      </c>
+      <c r="Q23">
+        <v>1.463533914857067</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.273468554468366</v>
+        <v>2.735356330219929</v>
       </c>
       <c r="C24">
-        <v>0.476561698383307</v>
+        <v>0.5539559570448489</v>
       </c>
       <c r="D24">
-        <v>0.0528404440896324</v>
+        <v>0.08680602019347816</v>
       </c>
       <c r="E24">
-        <v>0.03863334391568429</v>
+        <v>0.04789245056360869</v>
       </c>
       <c r="F24">
-        <v>0.8260496891219162</v>
+        <v>0.520434594295871</v>
       </c>
       <c r="G24">
-        <v>0.0007799895187108509</v>
+        <v>0.3817741386739186</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.005663007015409782</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2759825180117872</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2479829053066887</v>
       </c>
       <c r="L24">
-        <v>0.2008496036700507</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5558842441649148</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6530884244721378</v>
+        <v>0.2083477460308245</v>
       </c>
       <c r="O24">
-        <v>2.347200409017262</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.4911202156057399</v>
+      </c>
+      <c r="P24">
+        <v>0.8422122497685933</v>
+      </c>
+      <c r="Q24">
+        <v>1.337738621103284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.676867236628368</v>
+        <v>2.246558676516088</v>
       </c>
       <c r="C25">
-        <v>0.41549698317354</v>
+        <v>0.4893441981657531</v>
       </c>
       <c r="D25">
-        <v>0.04623811004780265</v>
+        <v>0.07270718529419895</v>
       </c>
       <c r="E25">
-        <v>0.04106850989804611</v>
+        <v>0.05034720223709144</v>
       </c>
       <c r="F25">
-        <v>0.716390968828378</v>
+        <v>0.4558049854574548</v>
       </c>
       <c r="G25">
-        <v>0.0007878683183089892</v>
+        <v>0.3356026425630461</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.003023200430617656</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2623209855429707</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2480268766702913</v>
       </c>
       <c r="L25">
-        <v>0.171000425448959</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4558474781839692</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.710017654657868</v>
+        <v>0.1773637482109223</v>
       </c>
       <c r="O25">
-        <v>2.082907116589126</v>
+        <v>0.4038734886996096</v>
+      </c>
+      <c r="P25">
+        <v>0.8461956306422778</v>
+      </c>
+      <c r="Q25">
+        <v>1.210728333779201</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_29/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.893896560784469</v>
+        <v>1.851497215941038</v>
       </c>
       <c r="C2">
-        <v>0.4376994499374973</v>
+        <v>0.4454920891924132</v>
       </c>
       <c r="D2">
-        <v>0.06191958699441358</v>
+        <v>0.0642299145248586</v>
       </c>
       <c r="E2">
-        <v>0.05247476193220502</v>
+        <v>0.04991002981283144</v>
       </c>
       <c r="F2">
-        <v>0.4133122166338765</v>
+        <v>0.3972899767911926</v>
       </c>
       <c r="G2">
-        <v>0.3063840834446907</v>
+        <v>0.2727691159887371</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001173718633260545</v>
+        <v>0.001389981517703198</v>
       </c>
       <c r="J2">
-        <v>0.2549377063773974</v>
+        <v>0.2885912082067463</v>
       </c>
       <c r="K2">
-        <v>0.2516839543435552</v>
+        <v>0.2353607571361529</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1365572872636029</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0521077778534913</v>
       </c>
       <c r="N2">
-        <v>0.154647135202552</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.3405136577395211</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8486562259489503</v>
+        <v>0.1590006469912737</v>
       </c>
       <c r="Q2">
-        <v>1.1329157223458</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3365725687447068</v>
+      </c>
+      <c r="R2">
+        <v>0.8608438287233682</v>
+      </c>
+      <c r="S2">
+        <v>1.081793544185516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.649394091707876</v>
+        <v>1.617456149221084</v>
       </c>
       <c r="C3">
-        <v>0.4051801724889117</v>
+        <v>0.4066096230587846</v>
       </c>
       <c r="D3">
-        <v>0.05485362878064848</v>
+        <v>0.05654181053782281</v>
       </c>
       <c r="E3">
-        <v>0.05395004493869582</v>
+        <v>0.05139326435006497</v>
       </c>
       <c r="F3">
-        <v>0.3840372182371254</v>
+        <v>0.3707666011593176</v>
       </c>
       <c r="G3">
-        <v>0.2859295020787656</v>
+        <v>0.2548556207366843</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0006243384470279167</v>
+        <v>0.0008263598269477868</v>
       </c>
       <c r="J3">
-        <v>0.2497674120671789</v>
+        <v>0.2829001929987314</v>
       </c>
       <c r="K3">
-        <v>0.2536466681868852</v>
+        <v>0.2385145809672622</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1414671126603508</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.05066043247716756</v>
       </c>
       <c r="N3">
-        <v>0.1400220717161105</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.2971802367256373</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8538993098553291</v>
+        <v>0.1437517683362941</v>
       </c>
       <c r="Q3">
-        <v>1.078430658810106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.2941383510488009</v>
+      </c>
+      <c r="R3">
+        <v>0.8594703091968583</v>
+      </c>
+      <c r="S3">
+        <v>1.035163304242289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.498708710710702</v>
+        <v>1.472946753825624</v>
       </c>
       <c r="C4">
-        <v>0.3852832255663685</v>
+        <v>0.3829141962078353</v>
       </c>
       <c r="D4">
-        <v>0.05051940331249227</v>
+        <v>0.05183550677769944</v>
       </c>
       <c r="E4">
-        <v>0.05490663152824471</v>
+        <v>0.05235102280659554</v>
       </c>
       <c r="F4">
-        <v>0.3665500862902107</v>
+        <v>0.3548549145661894</v>
       </c>
       <c r="G4">
-        <v>0.2737764915558216</v>
+        <v>0.2442400053719638</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0004660006649870319</v>
+        <v>0.0006306556507360561</v>
       </c>
       <c r="J4">
-        <v>0.2468831473543034</v>
+        <v>0.2795177164041149</v>
       </c>
       <c r="K4">
-        <v>0.2551752424184883</v>
+        <v>0.2406871302253109</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1446105667780238</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.05032675670870823</v>
       </c>
       <c r="N4">
-        <v>0.131234643239921</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.2705645682231008</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8579408132986401</v>
+        <v>0.1345989169887503</v>
       </c>
       <c r="Q4">
-        <v>1.046436984890462</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2680406042173153</v>
+      </c>
+      <c r="R4">
+        <v>0.8595081815803098</v>
+      </c>
+      <c r="S4">
+        <v>1.007622790509814</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.436324634062089</v>
+        <v>1.413020361000378</v>
       </c>
       <c r="C5">
-        <v>0.3776146579176896</v>
+        <v>0.3737499511294402</v>
       </c>
       <c r="D5">
-        <v>0.04879673616595426</v>
+        <v>0.04996477438844948</v>
       </c>
       <c r="E5">
-        <v>0.05529418227088234</v>
+        <v>0.05273915150137043</v>
       </c>
       <c r="F5">
-        <v>0.3592394302092927</v>
+        <v>0.348160881816284</v>
       </c>
       <c r="G5">
-        <v>0.2686196902732689</v>
+        <v>0.239711240747198</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.000508208785381381</v>
+        <v>0.0006634622196814988</v>
       </c>
       <c r="J5">
-        <v>0.24562429979283</v>
+        <v>0.2780074546181623</v>
       </c>
       <c r="K5">
-        <v>0.2556393811128927</v>
+        <v>0.241401709840467</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1458008790315084</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.05027838047544453</v>
       </c>
       <c r="N5">
-        <v>0.1277653570772301</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.2596392230856495</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.860104065584899</v>
+        <v>0.130986449689523</v>
       </c>
       <c r="Q5">
-        <v>1.032788862187715</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2573178518178345</v>
+      </c>
+      <c r="R5">
+        <v>0.8600756940601428</v>
+      </c>
+      <c r="S5">
+        <v>0.9957117862240068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.424936349877896</v>
+        <v>1.402037807483651</v>
       </c>
       <c r="C6">
-        <v>0.3768635553454516</v>
+        <v>0.3727832633581016</v>
       </c>
       <c r="D6">
-        <v>0.04856334150736785</v>
+        <v>0.04970828897793211</v>
       </c>
       <c r="E6">
-        <v>0.05534116112465215</v>
+        <v>0.05278741986405056</v>
       </c>
       <c r="F6">
-        <v>0.3576648433380143</v>
+        <v>0.3466898865796892</v>
       </c>
       <c r="G6">
-        <v>0.267401562944471</v>
+        <v>0.2386064540284139</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0006034638336886999</v>
+        <v>0.0007736729583109891</v>
       </c>
       <c r="J6">
-        <v>0.2452312501858174</v>
+        <v>0.2775639381190302</v>
       </c>
       <c r="K6">
-        <v>0.2554311652688384</v>
+        <v>0.2412454420893049</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1458509007285791</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.05021632219590266</v>
       </c>
       <c r="N6">
-        <v>0.1272725403696668</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.2577325463057818</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8608627318158497</v>
+        <v>0.1304716964607735</v>
       </c>
       <c r="Q6">
-        <v>1.029369772257851</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2554439753535327</v>
+      </c>
+      <c r="R6">
+        <v>0.8605957933019823</v>
+      </c>
+      <c r="S6">
+        <v>0.9925910748006146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.495070523684802</v>
+        <v>1.468383770801182</v>
       </c>
       <c r="C7">
-        <v>0.3866094838428751</v>
+        <v>0.3838516195632167</v>
       </c>
       <c r="D7">
-        <v>0.05064036709543274</v>
+        <v>0.05206085060645194</v>
       </c>
       <c r="E7">
-        <v>0.05486261707896789</v>
+        <v>0.05232119590135698</v>
       </c>
       <c r="F7">
-        <v>0.3654462544147989</v>
+        <v>0.3530982215498284</v>
       </c>
       <c r="G7">
-        <v>0.2727017174632991</v>
+        <v>0.2458812785171816</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0006852325344954835</v>
+        <v>0.0008927140957455393</v>
       </c>
       <c r="J7">
-        <v>0.2463519240848484</v>
+        <v>0.2750762853489661</v>
       </c>
       <c r="K7">
-        <v>0.2543897111074962</v>
+        <v>0.2396802298085383</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1440942860289738</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.05008312004191495</v>
       </c>
       <c r="N7">
-        <v>0.1314078689829827</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.2701642910249475</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8590406291369703</v>
+        <v>0.1347557966941011</v>
       </c>
       <c r="Q7">
-        <v>1.043044380860195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2674981421282183</v>
+      </c>
+      <c r="R7">
+        <v>0.8610852175603227</v>
+      </c>
+      <c r="S7">
+        <v>1.002185085811178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.805963266301006</v>
+        <v>1.764009179318947</v>
       </c>
       <c r="C8">
-        <v>0.4283898265991439</v>
+        <v>0.4325592304370645</v>
       </c>
       <c r="D8">
-        <v>0.0596749868454296</v>
+        <v>0.0621204616324107</v>
       </c>
       <c r="E8">
-        <v>0.05290919740454125</v>
+        <v>0.05038923395059758</v>
       </c>
       <c r="F8">
-        <v>0.4017789453106815</v>
+        <v>0.3845162951828627</v>
       </c>
       <c r="G8">
-        <v>0.2979098251654975</v>
+        <v>0.2742063993096053</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.001205956367336114</v>
+        <v>0.001472542925641029</v>
       </c>
       <c r="J8">
-        <v>0.2524135705147188</v>
+        <v>0.2732081529857453</v>
       </c>
       <c r="K8">
-        <v>0.2512485196164711</v>
+        <v>0.2345623374223251</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1373539833418107</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.0509618059048389</v>
       </c>
       <c r="N8">
-        <v>0.149855335700984</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.3252340522356008</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8517661359365576</v>
+        <v>0.1539321478813278</v>
       </c>
       <c r="Q8">
-        <v>1.109564282212418</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3211257706859243</v>
+      </c>
+      <c r="R8">
+        <v>0.8632556091184256</v>
+      </c>
+      <c r="S8">
+        <v>1.054291362323696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.416486714603025</v>
+        <v>2.345993404222725</v>
       </c>
       <c r="C9">
-        <v>0.5084156947851</v>
+        <v>0.5285191850819047</v>
       </c>
       <c r="D9">
-        <v>0.07718668600571732</v>
+        <v>0.08134083211291454</v>
       </c>
       <c r="E9">
-        <v>0.04957445130318572</v>
+        <v>0.04701931275739302</v>
       </c>
       <c r="F9">
-        <v>0.4790279031358367</v>
+        <v>0.4535783358215468</v>
       </c>
       <c r="G9">
-        <v>0.3526572074692353</v>
+        <v>0.3250023688471515</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.003433458470065709</v>
+        <v>0.003497397206809971</v>
       </c>
       <c r="J9">
-        <v>0.2676472325061638</v>
+        <v>0.2851706628051787</v>
       </c>
       <c r="K9">
-        <v>0.249193914569851</v>
+        <v>0.228768884240889</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1262775076973899</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.05776991884997074</v>
       </c>
       <c r="N9">
-        <v>0.1872802502277082</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.4337028517544894</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8422799493030766</v>
+        <v>0.192983781288504</v>
       </c>
       <c r="Q9">
-        <v>1.258216821697715</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.426997915438541</v>
+      </c>
+      <c r="R9">
+        <v>0.8710390503312766</v>
+      </c>
+      <c r="S9">
+        <v>1.179140288218321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.861422966153498</v>
+        <v>2.762716493123264</v>
       </c>
       <c r="C10">
-        <v>0.5686029238443098</v>
+        <v>0.5982314091698129</v>
       </c>
       <c r="D10">
-        <v>0.09019484908169062</v>
+        <v>0.09629264404714633</v>
       </c>
       <c r="E10">
-        <v>0.04736316721968592</v>
+        <v>0.04483042502655943</v>
       </c>
       <c r="F10">
-        <v>0.5383133434722041</v>
+        <v>0.5022418969618556</v>
       </c>
       <c r="G10">
-        <v>0.3949371071345382</v>
+        <v>0.3806684441183847</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.00627583957989053</v>
+        <v>0.006005691862486451</v>
       </c>
       <c r="J10">
-        <v>0.2802483142416179</v>
+        <v>0.2731895478308175</v>
       </c>
       <c r="K10">
-        <v>0.2491291555737369</v>
+        <v>0.2240578633771975</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1181519831645286</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.064837598908003</v>
       </c>
       <c r="N10">
-        <v>0.2160640030141252</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.5134100046639674</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8404645004523417</v>
+        <v>0.2229249675924194</v>
       </c>
       <c r="Q10">
-        <v>1.374702117238144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.5037101136667985</v>
+      </c>
+      <c r="R10">
+        <v>0.885130790032207</v>
+      </c>
+      <c r="S10">
+        <v>1.263696464065504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.058691270582301</v>
+        <v>2.936475485696008</v>
       </c>
       <c r="C11">
-        <v>0.5986544974040555</v>
+        <v>0.6279638683431017</v>
       </c>
       <c r="D11">
-        <v>0.09638134035115087</v>
+        <v>0.1045304521203434</v>
       </c>
       <c r="E11">
-        <v>0.04634302546537494</v>
+        <v>0.04394741905585775</v>
       </c>
       <c r="F11">
-        <v>0.5643913940889149</v>
+        <v>0.5163786850988359</v>
       </c>
       <c r="G11">
-        <v>0.4131663915792672</v>
+        <v>0.4353129823123112</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.008184621670516812</v>
+        <v>0.007749257629789064</v>
       </c>
       <c r="J11">
-        <v>0.285547544103494</v>
+        <v>0.2343518197201604</v>
       </c>
       <c r="K11">
-        <v>0.2482709783096411</v>
+        <v>0.2185661506688987</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1134079247863529</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.06706862415763837</v>
       </c>
       <c r="N11">
-        <v>0.2298198099003059</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.5492997965303061</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8427581146246439</v>
+        <v>0.2370123727132238</v>
       </c>
       <c r="Q11">
-        <v>1.424647706193866</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.5366190703075731</v>
+      </c>
+      <c r="R11">
+        <v>0.9002433008819679</v>
+      </c>
+      <c r="S11">
+        <v>1.277036817531325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.135868950181987</v>
+        <v>3.003305930115403</v>
       </c>
       <c r="C12">
-        <v>0.6087583347683392</v>
+        <v>0.6372321705808019</v>
       </c>
       <c r="D12">
-        <v>0.098597776203313</v>
+        <v>0.1076739261823008</v>
       </c>
       <c r="E12">
-        <v>0.04600494510565856</v>
+        <v>0.04367547032441443</v>
       </c>
       <c r="F12">
-        <v>0.5752695373518151</v>
+        <v>0.5217808879065231</v>
       </c>
       <c r="G12">
-        <v>0.4210529800211305</v>
+        <v>0.4615263664296378</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.008772591396688512</v>
+        <v>0.008215497598945909</v>
       </c>
       <c r="J12">
-        <v>0.2880614457187534</v>
+        <v>0.2177902354148387</v>
       </c>
       <c r="K12">
-        <v>0.248690289369911</v>
+        <v>0.21683187863594</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1117696099635026</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.06809405664332857</v>
       </c>
       <c r="N12">
-        <v>0.2348810351030295</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.5631323779961477</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8427270451061872</v>
+        <v>0.242167115173217</v>
       </c>
       <c r="Q12">
-        <v>1.446707095063687</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.5491073261199162</v>
+      </c>
+      <c r="R12">
+        <v>0.9056975487624612</v>
+      </c>
+      <c r="S12">
+        <v>1.282250564991301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.119758455278884</v>
+        <v>2.989480498737976</v>
       </c>
       <c r="C13">
-        <v>0.6063159759102916</v>
+        <v>0.6349787944370462</v>
       </c>
       <c r="D13">
-        <v>0.09809394546689276</v>
+        <v>0.106961691373229</v>
       </c>
       <c r="E13">
-        <v>0.04608523825864896</v>
+        <v>0.04373984429857192</v>
       </c>
       <c r="F13">
-        <v>0.5730989032321361</v>
+        <v>0.5208239621929422</v>
       </c>
       <c r="G13">
-        <v>0.4195270435118772</v>
+        <v>0.4558453032783802</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.008605489245194775</v>
+        <v>0.008065710245598545</v>
       </c>
       <c r="J13">
-        <v>0.2876067602151409</v>
+        <v>0.2214837367485174</v>
       </c>
       <c r="K13">
-        <v>0.2487327411651563</v>
+        <v>0.2173379932460406</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1121650533739018</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.06792834869319719</v>
       </c>
       <c r="N13">
-        <v>0.2337498334148904</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.560199166293792</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8425094249408289</v>
+        <v>0.2410161543897829</v>
       </c>
       <c r="Q13">
-        <v>1.44250375843194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5464731148191433</v>
+      </c>
+      <c r="R13">
+        <v>0.9042370029324189</v>
+      </c>
+      <c r="S13">
+        <v>1.281770795267704</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.065257709298862</v>
+        <v>2.942216397050345</v>
       </c>
       <c r="C14">
-        <v>0.599372653277328</v>
+        <v>0.6286175632063191</v>
       </c>
       <c r="D14">
-        <v>0.09655244090505022</v>
+        <v>0.104773978600619</v>
       </c>
       <c r="E14">
-        <v>0.04631838389343379</v>
+        <v>0.04392747467044433</v>
       </c>
       <c r="F14">
-        <v>0.565359330812548</v>
+        <v>0.5169119457815867</v>
       </c>
       <c r="G14">
-        <v>0.4138884055926297</v>
+        <v>0.4374492670640961</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.008215437030613337</v>
+        <v>0.007766249616821597</v>
       </c>
       <c r="J14">
-        <v>0.2857911386463172</v>
+        <v>0.2330499671116328</v>
       </c>
       <c r="K14">
-        <v>0.2483618002574772</v>
+        <v>0.2184803845276697</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1132916350046465</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.06717636452167142</v>
       </c>
       <c r="N14">
-        <v>0.2302186595321416</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.5504572692738137</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8426603039376346</v>
+        <v>0.237419104089696</v>
       </c>
       <c r="Q14">
-        <v>1.426694722012002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5376702120178507</v>
+      </c>
+      <c r="R14">
+        <v>0.9005703066486461</v>
+      </c>
+      <c r="S14">
+        <v>1.277742633209186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.03086793303828</v>
+        <v>2.912085917180946</v>
       </c>
       <c r="C15">
-        <v>0.5956449643527151</v>
+        <v>0.6252046024891342</v>
       </c>
       <c r="D15">
-        <v>0.09566048456640175</v>
+        <v>0.1035097565176883</v>
       </c>
       <c r="E15">
-        <v>0.04644680391698852</v>
+        <v>0.04403223971932846</v>
       </c>
       <c r="F15">
-        <v>0.5602850034537354</v>
+        <v>0.5140729511355815</v>
       </c>
       <c r="G15">
-        <v>0.4100994143304462</v>
+        <v>0.4264560428025135</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.008062412595806201</v>
+        <v>0.007686293733805805</v>
       </c>
       <c r="J15">
-        <v>0.2845109161048924</v>
+        <v>0.239768209772059</v>
       </c>
       <c r="K15">
-        <v>0.2478761353906656</v>
+        <v>0.2189051655366718</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1138925016814127</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.06660519764710671</v>
       </c>
       <c r="N15">
-        <v>0.2281387544741023</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.5444004455031859</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8431996146338605</v>
+        <v>0.2352969468008439</v>
       </c>
       <c r="Q15">
-        <v>1.415948490287889</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5321606336221905</v>
+      </c>
+      <c r="R15">
+        <v>0.8989201988166258</v>
+      </c>
+      <c r="S15">
+        <v>1.273893850170083</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.840109746508347</v>
+        <v>2.742850341599762</v>
       </c>
       <c r="C16">
-        <v>0.5710117223887892</v>
+        <v>0.6009233498165258</v>
       </c>
       <c r="D16">
-        <v>0.09022562009538859</v>
+        <v>0.09622933583430182</v>
       </c>
       <c r="E16">
-        <v>0.04729914940839119</v>
+        <v>0.04477486700765976</v>
       </c>
       <c r="F16">
-        <v>0.5336799634002674</v>
+        <v>0.4983538319332297</v>
       </c>
       <c r="G16">
-        <v>0.3908198114705357</v>
+        <v>0.3747474793283772</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.006780476572551208</v>
+        <v>0.006670926375770492</v>
       </c>
       <c r="J16">
-        <v>0.2784237231254139</v>
+        <v>0.273993173733345</v>
       </c>
       <c r="K16">
-        <v>0.2469351632503525</v>
+        <v>0.2223272685732525</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1177240341511698</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.06384782603013051</v>
       </c>
       <c r="N16">
-        <v>0.2158187949633685</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.5102992928617525</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8438838768955605</v>
+        <v>0.2226696119619476</v>
       </c>
       <c r="Q16">
-        <v>1.36213895960725</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5007688181224736</v>
+      </c>
+      <c r="R16">
+        <v>0.8881815754337907</v>
+      </c>
+      <c r="S16">
+        <v>1.253538834852264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.723038509967978</v>
+        <v>2.636600224193501</v>
       </c>
       <c r="C17">
-        <v>0.5559317071399335</v>
+        <v>0.5850075622903148</v>
       </c>
       <c r="D17">
-        <v>0.08689573371237458</v>
+        <v>0.0920246783814278</v>
       </c>
       <c r="E17">
-        <v>0.04783782844969853</v>
+        <v>0.04527411992382335</v>
       </c>
       <c r="F17">
-        <v>0.5175763628497876</v>
+        <v>0.4873527140154152</v>
       </c>
       <c r="G17">
-        <v>0.3791795802438713</v>
+        <v>0.3502372596823591</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.00607442712209405</v>
+        <v>0.006103914490362072</v>
       </c>
       <c r="J17">
-        <v>0.2748021085890571</v>
+        <v>0.2890604581819645</v>
       </c>
       <c r="K17">
-        <v>0.2464835747478809</v>
+        <v>0.2239714538981659</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1199540336688454</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.0620638111854781</v>
       </c>
       <c r="N17">
-        <v>0.2083363910693521</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4894018750928808</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8445658618452825</v>
+        <v>0.2149534100522317</v>
       </c>
       <c r="Q17">
-        <v>1.329759106250719</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4811733111046337</v>
+      </c>
+      <c r="R17">
+        <v>0.8830639814987364</v>
+      </c>
+      <c r="S17">
+        <v>1.236787062449338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.658219531994177</v>
+        <v>2.577148787828321</v>
       </c>
       <c r="C18">
-        <v>0.5459462281334311</v>
+        <v>0.5740605923812439</v>
       </c>
       <c r="D18">
-        <v>0.08485044844267264</v>
+        <v>0.089559994419254</v>
       </c>
       <c r="E18">
-        <v>0.04819339715885818</v>
+        <v>0.04561102003670925</v>
       </c>
       <c r="F18">
-        <v>0.509280762946581</v>
+        <v>0.4814170679853618</v>
       </c>
       <c r="G18">
-        <v>0.3734382627170731</v>
+        <v>0.3393769774065447</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.005469043802731832</v>
+        <v>0.005517047872070968</v>
       </c>
       <c r="J18">
-        <v>0.273208868954427</v>
+        <v>0.2955910530940145</v>
       </c>
       <c r="K18">
-        <v>0.2469511371388577</v>
+        <v>0.2253839483067424</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1214218565028666</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.06125720256847345</v>
       </c>
       <c r="N18">
-        <v>0.2038632335631974</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.4776207440537021</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8439855333609216</v>
+        <v>0.2103257324888119</v>
       </c>
       <c r="Q18">
-        <v>1.314182205763331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.4700149446904192</v>
+      </c>
+      <c r="R18">
+        <v>0.8794592197134108</v>
+      </c>
+      <c r="S18">
+        <v>1.228376687372872</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.634311503216566</v>
+        <v>2.554939210018858</v>
       </c>
       <c r="C19">
-        <v>0.5435867743314589</v>
+        <v>0.5713970173492555</v>
       </c>
       <c r="D19">
-        <v>0.08425952000761328</v>
+        <v>0.08884560252304396</v>
       </c>
       <c r="E19">
-        <v>0.04828390051780662</v>
+        <v>0.04570034353326724</v>
       </c>
       <c r="F19">
-        <v>0.5057983472476195</v>
+        <v>0.4786579883927971</v>
       </c>
       <c r="G19">
-        <v>0.3708203832219681</v>
+        <v>0.335417622249409</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.005441024831737806</v>
+        <v>0.005534295197304751</v>
       </c>
       <c r="J19">
-        <v>0.2723293219924443</v>
+        <v>0.2970025334004305</v>
       </c>
       <c r="K19">
-        <v>0.2465904570204032</v>
+        <v>0.2253512349871905</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.121730889860741</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.0607911650408397</v>
       </c>
       <c r="N19">
-        <v>0.2025044661399562</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.4734547430169656</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8446278259201492</v>
+        <v>0.2089156738171596</v>
       </c>
       <c r="Q19">
-        <v>1.306766891937258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4660394415505564</v>
+      </c>
+      <c r="R19">
+        <v>0.8792232363169177</v>
+      </c>
+      <c r="S19">
+        <v>1.2231745452967</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.735702360847881</v>
+        <v>2.648197100259665</v>
       </c>
       <c r="C20">
-        <v>0.5574318916569609</v>
+        <v>0.5866271455919048</v>
       </c>
       <c r="D20">
-        <v>0.08723973209723113</v>
+        <v>0.09245207551618506</v>
       </c>
       <c r="E20">
-        <v>0.0477830201801499</v>
+        <v>0.04522218978095394</v>
       </c>
       <c r="F20">
-        <v>0.5193524614983147</v>
+        <v>0.4886416927587618</v>
       </c>
       <c r="G20">
-        <v>0.3804815105326327</v>
+        <v>0.3526635532926008</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.006128526029744563</v>
+        <v>0.00613983814835084</v>
       </c>
       <c r="J20">
-        <v>0.275218734085712</v>
+        <v>0.2877494881658293</v>
       </c>
       <c r="K20">
-        <v>0.2465804850272058</v>
+        <v>0.2238622354791566</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1197394369247888</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.06227599546787488</v>
       </c>
       <c r="N20">
-        <v>0.2091147182376147</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.4916438219840771</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8443993631700266</v>
+        <v>0.215757887196375</v>
       </c>
       <c r="Q20">
-        <v>1.333404364959421</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.483289748166591</v>
+      </c>
+      <c r="R20">
+        <v>0.8834633135399059</v>
+      </c>
+      <c r="S20">
+        <v>1.238940809500633</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.078412843232286</v>
+        <v>2.949676309147037</v>
       </c>
       <c r="C21">
-        <v>0.602897479819319</v>
+        <v>0.6303561983053214</v>
       </c>
       <c r="D21">
-        <v>0.09715262887344522</v>
+        <v>0.105972119923166</v>
       </c>
       <c r="E21">
-        <v>0.04620553396397309</v>
+        <v>0.04387676218587977</v>
       </c>
       <c r="F21">
-        <v>0.5666331229249053</v>
+        <v>0.5146675268812473</v>
       </c>
       <c r="G21">
-        <v>0.4145479651161281</v>
+        <v>0.4526871864465249</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.008557106838553707</v>
+        <v>0.008121556810252173</v>
       </c>
       <c r="J21">
-        <v>0.2858206812321669</v>
+        <v>0.2188624153016434</v>
       </c>
       <c r="K21">
-        <v>0.2477078462005053</v>
+        <v>0.2165830571883376</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.112433769358196</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.06672984807342885</v>
       </c>
       <c r="N21">
-        <v>0.2314737850987996</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.5530579239677849</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.843827874251545</v>
+        <v>0.2386221226767447</v>
       </c>
       <c r="Q21">
-        <v>1.428170444137635</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.5394516153699698</v>
+      </c>
+      <c r="R21">
+        <v>0.904850604660993</v>
+      </c>
+      <c r="S21">
+        <v>1.268360605110217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.305898586996079</v>
+        <v>3.147899107659043</v>
       </c>
       <c r="C22">
-        <v>0.6308422293588194</v>
+        <v>0.6563399258061509</v>
       </c>
       <c r="D22">
-        <v>0.103460014602625</v>
+        <v>0.1148753846769637</v>
       </c>
       <c r="E22">
-        <v>0.0452832154111027</v>
+        <v>0.04313876163650132</v>
       </c>
       <c r="F22">
-        <v>0.5995518522319827</v>
+        <v>0.5322793969546211</v>
       </c>
       <c r="G22">
-        <v>0.4387230420837369</v>
+        <v>0.5289175509787327</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.01012493993211461</v>
+        <v>0.009265212847557436</v>
       </c>
       <c r="J22">
-        <v>0.2937719000764929</v>
+        <v>0.1800285100038224</v>
       </c>
       <c r="K22">
-        <v>0.2498388078514537</v>
+        <v>0.212608038464797</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1081029978661157</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.07023747845783745</v>
       </c>
       <c r="N22">
-        <v>0.2460689206811679</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.5936111658629386</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.842797735173562</v>
+        <v>0.253506854361504</v>
       </c>
       <c r="Q22">
-        <v>1.496289608210759</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.5762226779668254</v>
+      </c>
+      <c r="R22">
+        <v>0.9192607440366345</v>
+      </c>
+      <c r="S22">
+        <v>1.289432826164642</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.187937706305718</v>
+        <v>3.048248133512288</v>
       </c>
       <c r="C23">
-        <v>0.6141242408378673</v>
+        <v>0.6418074515130741</v>
       </c>
       <c r="D23">
-        <v>0.09991411663133931</v>
+        <v>0.109627355274597</v>
       </c>
       <c r="E23">
-        <v>0.04582375258929172</v>
+        <v>0.04353976008479155</v>
       </c>
       <c r="F23">
-        <v>0.5831116318815504</v>
+        <v>0.5257850632971071</v>
       </c>
       <c r="G23">
-        <v>0.4269566963549352</v>
+        <v>0.4807203161778659</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.009004412111449867</v>
+        <v>0.008323613687480247</v>
       </c>
       <c r="J23">
-        <v>0.2900969547289094</v>
+        <v>0.2070176526190224</v>
       </c>
       <c r="K23">
-        <v>0.2495789671876523</v>
+        <v>0.2161631162479303</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1108701210181273</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.06896287676991264</v>
       </c>
       <c r="N23">
-        <v>0.2379900782830902</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.5722727786708219</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.84179478973887</v>
+        <v>0.2453245865461753</v>
       </c>
       <c r="Q23">
-        <v>1.463533914857067</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.5573160771131569</v>
+      </c>
+      <c r="R23">
+        <v>0.9084017693241577</v>
+      </c>
+      <c r="S23">
+        <v>1.287222530823641</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.735356330219929</v>
+        <v>2.648279002195522</v>
       </c>
       <c r="C24">
-        <v>0.5539559570448489</v>
+        <v>0.582870453506473</v>
       </c>
       <c r="D24">
-        <v>0.08680602019347816</v>
+        <v>0.0919693281933931</v>
       </c>
       <c r="E24">
-        <v>0.04789245056360869</v>
+        <v>0.04532018439076158</v>
       </c>
       <c r="F24">
-        <v>0.520434594295871</v>
+        <v>0.4898963116986508</v>
       </c>
       <c r="G24">
-        <v>0.3817741386739186</v>
+        <v>0.3534056560914678</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.005663007015409782</v>
+        <v>0.005577848857957868</v>
       </c>
       <c r="J24">
-        <v>0.2759825180117872</v>
+        <v>0.2892480175966341</v>
       </c>
       <c r="K24">
-        <v>0.2479829053066887</v>
+        <v>0.2252371391565582</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1203207783474927</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.06270560956809135</v>
       </c>
       <c r="N24">
-        <v>0.2083477460308245</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.4911202156057399</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8422122497685933</v>
+        <v>0.2149693754937232</v>
       </c>
       <c r="Q24">
-        <v>1.337738621103284</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.4828216356269195</v>
+      </c>
+      <c r="R24">
+        <v>0.8807982228240405</v>
+      </c>
+      <c r="S24">
+        <v>1.243732894710774</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.246558676516088</v>
+        <v>2.18546686136591</v>
       </c>
       <c r="C25">
-        <v>0.4893441981657531</v>
+        <v>0.5059181542320914</v>
       </c>
       <c r="D25">
-        <v>0.07270718529419895</v>
+        <v>0.07624879844664889</v>
       </c>
       <c r="E25">
-        <v>0.05034720223709144</v>
+        <v>0.04779846181544478</v>
       </c>
       <c r="F25">
-        <v>0.4558049854574548</v>
+        <v>0.4336786251728313</v>
       </c>
       <c r="G25">
-        <v>0.3356026425630461</v>
+        <v>0.305175409573252</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.003023200430617656</v>
+        <v>0.003261753343163143</v>
       </c>
       <c r="J25">
-        <v>0.2623209855429707</v>
+        <v>0.28628892450444</v>
       </c>
       <c r="K25">
-        <v>0.2480268766702913</v>
+        <v>0.2291547665287723</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1287698744876291</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.05510665309016183</v>
       </c>
       <c r="N25">
-        <v>0.1773637482109223</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.4038734886996096</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8461956306422778</v>
+        <v>0.1826502954695997</v>
       </c>
       <c r="Q25">
-        <v>1.210728333779201</v>
+        <v>0.3981164493063503</v>
+      </c>
+      <c r="R25">
+        <v>0.8697577578529447</v>
+      </c>
+      <c r="S25">
+        <v>1.141633966096066</v>
       </c>
     </row>
   </sheetData>
